--- a/biology/Médecine/Santé_en_Montérégie/Santé_en_Montérégie.xlsx
+++ b/biology/Médecine/Santé_en_Montérégie/Santé_en_Montérégie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_en_Mont%C3%A9r%C3%A9gie</t>
+          <t>Santé_en_Montérégie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article concerne la santé en Montérégie, une région administrative du Québec.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_en_Mont%C3%A9r%C3%A9gie</t>
+          <t>Santé_en_Montérégie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Hôpitaux
-En Montérégie-Centre :
+          <t>Hôpitaux</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En Montérégie-Centre :
 Hôpital Charles-Le Moyne
 Hôpital du Haut-Richelieu
 En Montérégie-Est :
@@ -526,9 +543,43 @@
 Hôpital du Suroît
 Hôpital Barrie Memorial
 Hôpital Anna-Laberge
-Centre Hospitalier Kateri-Memorial Tehsakotitsen : Tha
-CLSC
-On retrouve des centres locaux de services communautaires (CLSC) dans les localités suivantes :
+Centre Hospitalier Kateri-Memorial Tehsakotitsen : Tha</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Santé_en_Montérégie</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sant%C3%A9_en_Mont%C3%A9r%C3%A9gie</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Établissements</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>CLSC</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On retrouve des centres locaux de services communautaires (CLSC) dans les localités suivantes :
 Acton Vale
 Beauharnois
 Belœil
@@ -561,35 +612,9 @@
 Vaudreuil-Dorion
 Varennes
 Verchères
-Enseignement</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Sant%C3%A9_en_Mont%C3%A9r%C3%A9gie</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Sant%C3%A9_en_Mont%C3%A9r%C3%A9gie</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Histoire</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -597,7 +622,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_en_Mont%C3%A9r%C3%A9gie</t>
+          <t>Santé_en_Montérégie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -612,29 +637,131 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Santé_en_Montérégie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sant%C3%A9_en_Mont%C3%A9r%C3%A9gie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Administration</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Organisation
-La région de la Montérégie est divisée en trois centres intégrés de santé et de services sociaux (CISSS) :
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La région de la Montérégie est divisée en trois centres intégrés de santé et de services sociaux (CISSS) :
 CISSS de la Montérégie-Centre
 CISSS de la Montérégie-Est
-CISSS de la Montérégie-Ouest
-Présidence-direction générale
-Il existe trois président-directeur général en Montérégie, un pour chaque centre intégré de santé et de services sociaux.
+CISSS de la Montérégie-Ouest</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Santé_en_Montérégie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sant%C3%A9_en_Mont%C3%A9r%C3%A9gie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Administration</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Présidence-direction générale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe trois président-directeur général en Montérégie, un pour chaque centre intégré de santé et de services sociaux.
 Montérégie-Centre
-Depuis le 1er avril 2015 : Richard Deschamps[1]
+Depuis le 1er avril 2015 : Richard Deschamps
 Montérégie-Est
-Depuis le 1er avril 2015 : Louise Potvin[2]
+Depuis le 1er avril 2015 : Louise Potvin
 Montérégie-Ouest
-Depuis le 9 août 2021 : Philippe Gribeauval [3]
-Direction de santé publique
-Le directeur de la santé publique de la Montérégie a le rôle d'informer la population montérégienne sur différentes situations concernant l'état de santé (mode de vie sain, inégalités sociales de santé, etc) et d'instaurer des consignes pour protéger la santé publique (épidémie, grippe).
+Depuis le 9 août 2021 : Philippe Gribeauval 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Santé_en_Montérégie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sant%C3%A9_en_Mont%C3%A9r%C3%A9gie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Administration</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Direction de santé publique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le directeur de la santé publique de la Montérégie a le rôle d'informer la population montérégienne sur différentes situations concernant l'état de santé (mode de vie sain, inégalités sociales de santé, etc) et d'instaurer des consignes pour protéger la santé publique (épidémie, grippe).
 ? - 10 juillet 2014 : Alain Poirier
-22 août 2014 - 4 juillet 2016 : Jean Rodrigue[4]
-Depuis le 4 juillet 2016 : Julie Loslier[5]</t>
+22 août 2014 - 4 juillet 2016 : Jean Rodrigue
+Depuis le 4 juillet 2016 : Julie Loslier</t>
         </is>
       </c>
     </row>
